--- a/Bank/Groceries with card.xlsx
+++ b/Bank/Groceries with card.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML\Tutorials\Git\Dockers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML\Tutorials\Git\Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A410265-4077-4448-8037-ACA10151E3E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3DF6CD-8EBC-4543-B05F-38AEDB006D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="211">
   <si>
     <t>Date</t>
   </si>
@@ -399,6 +399,9 @@
     <t>Vodafone recharge</t>
   </si>
   <si>
+    <t>10-082020</t>
+  </si>
+  <si>
     <t>Garnier facewash, soap, handwash</t>
   </si>
   <si>
@@ -565,6 +568,93 @@
   </si>
   <si>
     <t>0.66+1.52+0.66+2.22+0.37+0.96+0.47+0.43+0.97+0.57+0.76+1.15</t>
+  </si>
+  <si>
+    <t>eggs, cocacola, biscuits, bread, milk, chocolate milk</t>
+  </si>
+  <si>
+    <t>1.52+1.05+0.25+0.96+0.66+0.76+0.67</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>bulb cfl</t>
+  </si>
+  <si>
+    <t>router</t>
+  </si>
+  <si>
+    <t>3 brot, olives, couscous, 1kilo keema, harisa 370gm, garam masala, cocacola can, 0.5kg chicken wings, 3 kilo chicken legs</t>
+  </si>
+  <si>
+    <t>2.07+1.29+1.29+3.57+1.79+1.19+0.69+0.25+1.64+7.77</t>
+  </si>
+  <si>
+    <t>0.18+0.25+0.86+0.53+0.77</t>
+  </si>
+  <si>
+    <t>water X1, jam, donut, pizza</t>
+  </si>
+  <si>
+    <t>backpaper, 2.5Kilo aluu, gurke (cucumber), onion, cocacola, bread, rice X2 packet, handwash, eggs</t>
+  </si>
+  <si>
+    <t>0.92+1.25+0.55+0.58+1.69+0.25+0.66+0.66+0.66+0.63+1.52</t>
+  </si>
+  <si>
+    <t>Pizza X2, milk, rice X2, bread, lemon, fries, mozarella cheese, eggs</t>
+  </si>
+  <si>
+    <t>0.77+0.77+0.76+0.66+0.66+0.76+0.82+0.97+1.73+1.52</t>
+  </si>
+  <si>
+    <t>bread, foil paper, ketchup, toothbrush, oil</t>
+  </si>
+  <si>
+    <t>0.96+1.40+0.76+1.16+0.96</t>
+  </si>
+  <si>
+    <t>pizza X2, cocacola, bread, fries, yogurt, eggs</t>
+  </si>
+  <si>
+    <t>0.77+0.77+0.86+0.25+0.76+0.97+0.47+1.52</t>
+  </si>
+  <si>
+    <t>Gurke, tomato, brinjal</t>
+  </si>
+  <si>
+    <t>0.42+1.17+0.58</t>
+  </si>
+  <si>
+    <t>bread, rice eggs, hamburger brot, pizza X2, harry donuts</t>
+  </si>
+  <si>
+    <t>0.76+0.66+1.93+0.66+0.77+0.77+0.53</t>
+  </si>
+  <si>
+    <t>nivea active energy washgel</t>
+  </si>
+  <si>
+    <t>3.95-0.10</t>
+  </si>
+  <si>
+    <t>tariq food</t>
+  </si>
+  <si>
+    <t>shan seekh kabab, shan biryani, shan korma, shan keema masala, shan ginger/garlic paste, dabur amla hair oil, maggie small X2, maggie Sunday special</t>
+  </si>
+  <si>
+    <t>0.99+0.99+0.99+0.99+2.29+2.99+0.5+0.5+1.9</t>
+  </si>
+  <si>
+    <t>eurogida</t>
+  </si>
+  <si>
+    <t>kurabiye tat, 3 kilo chicken, 1 kilo keema, cocacola can, 0.5kilo chicken wings, small roti, big roti X3</t>
+  </si>
+  <si>
+    <t>1.49+7.35+4.31+0.69+0.25+1.65+0.69+3.30</t>
   </si>
   <si>
     <t>SNo</t>
@@ -895,9 +985,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -911,7 +1003,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2053,17 +2145,17 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
-        <v>44053</v>
+      <c r="B58" t="s">
+        <v>124</v>
       </c>
       <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D58" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F58" s="3">
         <v>5.1100000000000003</v>
@@ -2080,10 +2172,10 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F59" s="3">
         <v>10.81</v>
@@ -2100,13 +2192,13 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2120,10 +2212,10 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F61" s="3">
         <v>6.07</v>
@@ -2140,10 +2232,10 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F62" s="3">
         <v>6.81</v>
@@ -2160,10 +2252,10 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F63" s="3">
         <v>4.74</v>
@@ -2180,10 +2272,10 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F64" s="3">
         <v>1.1299999999999999</v>
@@ -2211,10 +2303,10 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F66" s="3">
         <v>11.83</v>
@@ -2231,10 +2323,10 @@
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F67" s="3">
         <v>5.39</v>
@@ -2251,10 +2343,10 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F68" s="3">
         <v>6.55</v>
@@ -2271,10 +2363,10 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F69" s="3">
         <v>6.08</v>
@@ -2291,10 +2383,10 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F70" s="3">
         <v>4.07</v>
@@ -2311,10 +2403,10 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F71" s="3">
         <v>6.71</v>
@@ -2331,10 +2423,10 @@
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F72" s="3">
         <v>2.95</v>
@@ -2351,10 +2443,10 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F73" s="3">
         <v>1.41</v>
@@ -2371,10 +2463,10 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F74" s="3">
         <v>7.1</v>
@@ -2391,10 +2483,10 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F75" s="3">
         <v>2.11</v>
@@ -2411,13 +2503,13 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2428,10 +2520,10 @@
         <v>44109</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E77" s="2">
         <v>4.6500000000000004</v>
@@ -2451,10 +2543,10 @@
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F78" s="3">
         <v>18.27</v>
@@ -2471,10 +2563,10 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F79" s="3">
         <v>7</v>
@@ -2491,10 +2583,10 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F80" s="3">
         <v>8.48</v>
@@ -2511,13 +2603,13 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2531,10 +2623,10 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F82" s="3">
         <v>2.4900000000000002</v>
@@ -2551,10 +2643,10 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F83" s="3">
         <v>3.49</v>
@@ -2571,13 +2663,293 @@
         <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F84" s="3">
         <v>10.74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>181</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F85" s="3">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C86" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" s="2">
+        <v>6.34</v>
+      </c>
+      <c r="F86" s="3">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C87" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" t="s">
+        <v>185</v>
+      </c>
+      <c r="E87" s="2">
+        <v>15.59</v>
+      </c>
+      <c r="F87" s="3">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>186</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F88" s="3">
+        <v>21.55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>189</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>190</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F90" s="3">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F91" s="3">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>44157</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>194</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F92" s="3">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>44158</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F93" s="3">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>44160</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>198</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>44162</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F95" s="3">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>44166</v>
+      </c>
+      <c r="C96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" t="s">
+        <v>202</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F96" s="3">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>44166</v>
+      </c>
+      <c r="C97" t="s">
+        <v>204</v>
+      </c>
+      <c r="D97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F97" s="3">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>44166</v>
+      </c>
+      <c r="C98" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F98" s="3">
+        <v>19.73</v>
       </c>
     </row>
   </sheetData>
